--- a/ClientDemo/DataProvider/data2.xlsx
+++ b/ClientDemo/DataProvider/data2.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
-    <t>piencee.abhijog@ampcusinc.com</t>
-  </si>
-  <si>
-    <t>Team@123</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -359,7 +356,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
